--- a/biology/Botanique/Echinopsis_candicans/Echinopsis_candicans.xlsx
+++ b/biology/Botanique/Echinopsis_candicans/Echinopsis_candicans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echinopsis candicans est une espèce de plantes à fleurs du genre Echinopsis et de la famille des Cactaceae originaire du nord et de l'ouest de l'Argentine (Désert de Monte). Ce cactus a de grandes fleurs blanches parfumées qui s'ouvrent la nuit[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echinopsis candicans est une espèce de plantes à fleurs du genre Echinopsis et de la famille des Cactaceae originaire du nord et de l'ouest de l'Argentine (Désert de Monte). Ce cactus a de grandes fleurs blanches parfumées qui s'ouvrent la nuit.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Echinopsis candicans  a une croissance arbustive, avec des tiges en colonnes individuelles d'environ 60 cm de hauteur (mais pas plus de 2 m)[2]. La plante dans son ensemble peut s"étendre sur une surface de 3 m de diamètre. Les tiges sont vert clair, avec un diamètre pouvant atteindre 14 cm et ont de 9 à 11 côtes basses. Les grandes aréoles blanches sont espacées de 2 à 3 cm et produisent des épines jaune brunâtre, l'épine centrale allant jusqu'à 10 cm de long, les épines radiales jusqu'à 4 cm[1].
-Les fleurs blanches parfumées s'ouvrent la nuit en été[2]. Elles sont grandes, jusqu'à 19 cm de diamètre et 18  à 23 cm de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Echinopsis candicans  a une croissance arbustive, avec des tiges en colonnes individuelles d'environ 60 cm de hauteur (mais pas plus de 2 m). La plante dans son ensemble peut s"étendre sur une surface de 3 m de diamètre. Les tiges sont vert clair, avec un diamètre pouvant atteindre 14 cm et ont de 9 à 11 côtes basses. Les grandes aréoles blanches sont espacées de 2 à 3 cm et produisent des épines jaune brunâtre, l'épine centrale allant jusqu'à 10 cm de long, les épines radiales jusqu'à 4 cm.
+Les fleurs blanches parfumées s'ouvrent la nuit en été. Elles sont grandes, jusqu'à 19 cm de diamètre et 18  à 23 cm de long.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite pour la première fois sous forme imprimée par Joseph zu Salm-Reifferscheidt-Dyck en 1834 dans son ouvrage Hortus Dyckensis, où il a attribué le nom Cereus candicans à Gillies[3] En 1920, Britton et Rose ont placé l'espèce dans Trichocereus[1]. Dans une publication de 1987, David Hunt a transféré l'espèce au genre Echinopsis, attribuant ce placement à Frédéric Weber[4].
-La large circonscription de Echinopsis reste controversée ; le genre est accepté comme n'étant pas monophyletic[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite pour la première fois sous forme imprimée par Joseph zu Salm-Reifferscheidt-Dyck en 1834 dans son ouvrage Hortus Dyckensis, où il a attribué le nom Cereus candicans à Gillies En 1920, Britton et Rose ont placé l'espèce dans Trichocereus. Dans une publication de 1987, David Hunt a transféré l'espèce au genre Echinopsis, attribuant ce placement à Frédéric Weber.
+La large circonscription de Echinopsis reste controversée ; le genre est accepté comme n'étant pas monophyletic.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soehrensia candicans contient 0,5 à 5,0 % de hordénine[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soehrensia candicans contient 0,5 à 5,0 % de hordénine
 </t>
         </is>
       </c>
